--- a/doc/ESP32_WT32-SC01/pin-assignment.xlsx
+++ b/doc/ESP32_WT32-SC01/pin-assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Cube\doc\ESP32_WT32-SC01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D97ECC-E7D3-457E-BF84-A563F0EFB407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0FB557-F715-4B31-9EDA-D93BAEA468F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="225" windowWidth="22110" windowHeight="14835" xr2:uid="{EE418591-2DAE-4191-A9E5-E8A6311F1D23}"/>
+    <workbookView xWindow="30165" yWindow="615" windowWidth="22110" windowHeight="14835" xr2:uid="{EE418591-2DAE-4191-A9E5-E8A6311F1D23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
   <si>
     <t>GND</t>
   </si>
@@ -790,7 +790,7 @@
   <dimension ref="C3:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -826,121 +826,109 @@
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="1">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="1">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
-        <v>24</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="1">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="1">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
-        <v>23</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="1">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="1">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="1">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="1">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>62</v>
@@ -948,19 +936,19 @@
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="H11" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>64</v>
@@ -968,19 +956,19 @@
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="1">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>78</v>
@@ -988,344 +976,410 @@
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
-        <v>29</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>67</v>
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="H13" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="1">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
-        <v>8</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="1">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="1">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
-        <v>9</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="1">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
-        <v>7</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="1">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
-        <v>15</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
-        <v>38</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
-        <v>39</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
-        <v>25</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
-        <v>20</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
-        <v>21</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
-        <v>22</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
-        <v>17</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
-        <v>18</v>
-      </c>
-      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="1">
+        <v>8</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="1">
         <v>29</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C33" s="1">
-        <v>19</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>4</v>
       </c>
@@ -1338,8 +1392,11 @@
       <c r="F37" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>5</v>
       </c>
@@ -1352,8 +1409,11 @@
       <c r="F38" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>27</v>
       </c>
@@ -1363,9 +1423,11 @@
       <c r="F39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G39" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>28</v>
       </c>
@@ -1375,9 +1437,11 @@
       <c r="F40" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G40" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>32</v>
       </c>
@@ -1387,9 +1451,11 @@
       <c r="F41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G41" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>2</v>
       </c>
@@ -1399,12 +1465,14 @@
       <c r="F42" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C3:H42" xr:uid="{F739D572-719E-4302-A82C-879FF008EB51}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:H42">
-      <sortCondition ref="H3:H42"/>
+      <sortCondition ref="D3:D42"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
